--- a/data/trans_bre/P21D_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21D_1_R-Habitat-trans_bre.xlsx
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1977025329947544</v>
+        <v>0.1977025329947543</v>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.005063561772366</v>
+        <v>1.108829044479343</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7206233056397306</v>
+        <v>0.6634121576360514</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3032907023771109</v>
+        <v>0.2664166611066164</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
